--- a/Results/results_misc.xlsx
+++ b/Results/results_misc.xlsx
@@ -12,17 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">T</t>
+    <t xml:space="preserve">Tobs</t>
   </si>
   <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
+    <t xml:space="preserve">variant</t>
+  </si>
+  <si>
     <t xml:space="preserve">overall</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">avg_K_selective_cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_holds</t>
   </si>
 </sst>
 </file>
@@ -458,6 +464,9 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,32 +478,32 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.056</v>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.064</v>
+        <v>0.0625</v>
       </c>
       <c r="G2" t="n">
-        <v>0.042</v>
+        <v>0.0525</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.000389216460384935</v>
+        <v>0.0225</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00176796615886702</v>
+        <v>0.0168718663913452</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00150714457750928</v>
+        <v>0.0196191134013549</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00112637155310387</v>
+        <v>0.0170813691750611</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.00920390130374723</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -506,16 +515,81 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.636</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.106</v>
+        <v>3.485</v>
       </c>
       <c r="R2" t="n">
-        <v>2.052</v>
+        <v>3.9425</v>
       </c>
       <c r="S2" t="n">
-        <v>2.006</v>
+        <v>2.91</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.6575</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0183582327084883</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0132921262720714</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0137318146155423</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00711324528978235</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.0575</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.1675</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.6925</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
